--- a/biology/Médecine/Mimi_Belmonte/Mimi_Belmonte.xlsx
+++ b/biology/Médecine/Mimi_Belmonte/Mimi_Belmonte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mimi Belmonte, née le 16 octobre 1926 à Montréal et morte dans la même ville le 3 janvier 2024[1], est une femme médecin canadienne, spécialisée en pédiatrie.
-Elle reçoit l'Ordre du Canada en 1999[2].
-Elle est une fondatrice du Camp Carowanis pour les enfants diabétiques[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mimi Belmonte, née le 16 octobre 1926 à Montréal et morte dans la même ville le 3 janvier 2024, est une femme médecin canadienne, spécialisée en pédiatrie.
+Elle reçoit l'Ordre du Canada en 1999.
+Elle est une fondatrice du Camp Carowanis pour les enfants diabétiques.
 </t>
         </is>
       </c>
